--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Java\StudentManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\DoAnJava-Nam2-HK2\QLSV\StudentManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4EBAA33-450A-454C-8E06-4E6AF6629EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5B4698-D81A-468C-A543-8620409618FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A92D86BB-4015-451E-B5AF-F5981A56BD7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A92D86BB-4015-451E-B5AF-F5981A56BD7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,12 +32,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>a</t>
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>bv</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -390,124 +428,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6214C18-A65F-486D-9179-D9FC1D42642A}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
